--- a/2022_10_6_2.xlsx
+++ b/2022_10_6_2.xlsx
@@ -20,125 +20,125 @@
     <definedName name="G1_M0_R2_Wins">Turnier!$N$37</definedName>
     <definedName name="G1_M0_R3_Games">Turnier!$M$48</definedName>
     <definedName name="G1_M0_R3_Wins">Turnier!$N$48</definedName>
-    <definedName name="G1_M0_R4_Games">Turnier!$M$62</definedName>
-    <definedName name="G1_M0_R4_Wins">Turnier!$N$62</definedName>
-    <definedName name="G1_M0_R5_Games">Turnier!$M$72</definedName>
-    <definedName name="G1_M0_R5_Wins">Turnier!$N$72</definedName>
+    <definedName name="G1_M0_R4_Games">Turnier!$H$53</definedName>
+    <definedName name="G1_M0_R4_Wins">Turnier!$I$53</definedName>
+    <definedName name="G1_M0_R5_Games">Turnier!$M$63</definedName>
+    <definedName name="G1_M0_R5_Wins">Turnier!$N$63</definedName>
     <definedName name="G1_M1">Spieler!$C$4</definedName>
     <definedName name="G1_M1_R0_Games">Turnier!$M$8</definedName>
     <definedName name="G1_M1_R0_Wins">Turnier!$N$8</definedName>
-    <definedName name="G1_M1_R1_Games">Turnier!$M$22</definedName>
-    <definedName name="G1_M1_R1_Wins">Turnier!$N$22</definedName>
-    <definedName name="G1_M1_R2_Games">Turnier!$M$33</definedName>
-    <definedName name="G1_M1_R2_Wins">Turnier!$N$33</definedName>
-    <definedName name="G1_M1_R3_Games">Turnier!$M$47</definedName>
-    <definedName name="G1_M1_R3_Wins">Turnier!$N$47</definedName>
-    <definedName name="G1_M1_R4_Games">Turnier!$M$53</definedName>
-    <definedName name="G1_M1_R4_Wins">Turnier!$N$53</definedName>
-    <definedName name="G1_M1_R5_Games">Turnier!$H$72</definedName>
-    <definedName name="G1_M1_R5_Wins">Turnier!$I$72</definedName>
+    <definedName name="G1_M1_R1_Games">Turnier!$H$22</definedName>
+    <definedName name="G1_M1_R1_Wins">Turnier!$I$22</definedName>
+    <definedName name="G1_M1_R2_Games">Turnier!$M$32</definedName>
+    <definedName name="G1_M1_R2_Wins">Turnier!$N$32</definedName>
+    <definedName name="G1_M1_R3_Games">Turnier!$H$48</definedName>
+    <definedName name="G1_M1_R3_Wins">Turnier!$I$48</definedName>
+    <definedName name="G1_M1_R4_Games">Turnier!$H$62</definedName>
+    <definedName name="G1_M1_R4_Wins">Turnier!$I$62</definedName>
+    <definedName name="G1_M1_R5_Games">Turnier!$H$67</definedName>
+    <definedName name="G1_M1_R5_Wins">Turnier!$I$67</definedName>
     <definedName name="G1_M2">Spieler!$C$5</definedName>
     <definedName name="G1_M2_R0_Games">Turnier!$M$7</definedName>
     <definedName name="G1_M2_R0_Wins">Turnier!$N$7</definedName>
-    <definedName name="G1_M2_R1_Games">Turnier!$M$18</definedName>
-    <definedName name="G1_M2_R1_Wins">Turnier!$N$18</definedName>
-    <definedName name="G1_M2_R2_Games">Turnier!$H$37</definedName>
-    <definedName name="G1_M2_R2_Wins">Turnier!$I$37</definedName>
+    <definedName name="G1_M2_R1_Games">Turnier!$M$22</definedName>
+    <definedName name="G1_M2_R1_Wins">Turnier!$N$22</definedName>
+    <definedName name="G1_M2_R2_Games">Turnier!$H$33</definedName>
+    <definedName name="G1_M2_R2_Wins">Turnier!$I$33</definedName>
     <definedName name="G1_M2_R3_Games">Turnier!$M$43</definedName>
     <definedName name="G1_M2_R3_Wins">Turnier!$N$43</definedName>
-    <definedName name="G1_M2_R4_Games">Turnier!$H$57</definedName>
-    <definedName name="G1_M2_R4_Wins">Turnier!$I$57</definedName>
-    <definedName name="G1_M2_R5_Games">Turnier!$H$63</definedName>
-    <definedName name="G1_M2_R5_Wins">Turnier!$I$63</definedName>
+    <definedName name="G1_M2_R4_Games">Turnier!$H$52</definedName>
+    <definedName name="G1_M2_R4_Wins">Turnier!$I$52</definedName>
+    <definedName name="G1_M2_R5_Games">Turnier!$M$72</definedName>
+    <definedName name="G1_M2_R5_Wins">Turnier!$N$72</definedName>
     <definedName name="G1_M3">Spieler!$C$6</definedName>
-    <definedName name="G1_M3_R0_Games">Turnier!$H$12</definedName>
-    <definedName name="G1_M3_R0_Wins">Turnier!$I$12</definedName>
-    <definedName name="G1_M3_R1_Games">Turnier!$M$17</definedName>
-    <definedName name="G1_M3_R1_Wins">Turnier!$N$17</definedName>
-    <definedName name="G1_M3_R2_Games">Turnier!$H$33</definedName>
-    <definedName name="G1_M3_R2_Wins">Turnier!$I$33</definedName>
-    <definedName name="G1_M3_R3_Games">Turnier!$M$42</definedName>
-    <definedName name="G1_M3_R3_Wins">Turnier!$N$42</definedName>
-    <definedName name="G1_M3_R4_Games">Turnier!$H$52</definedName>
-    <definedName name="G1_M3_R4_Wins">Turnier!$I$52</definedName>
-    <definedName name="G1_M3_R5_Games">Turnier!$M$63</definedName>
-    <definedName name="G1_M3_R5_Wins">Turnier!$N$63</definedName>
+    <definedName name="G1_M3_R0_Games">Turnier!$H$8</definedName>
+    <definedName name="G1_M3_R0_Wins">Turnier!$I$8</definedName>
+    <definedName name="G1_M3_R1_Games">Turnier!$H$18</definedName>
+    <definedName name="G1_M3_R1_Wins">Turnier!$I$18</definedName>
+    <definedName name="G1_M3_R2_Games">Turnier!$M$33</definedName>
+    <definedName name="G1_M3_R2_Wins">Turnier!$N$33</definedName>
+    <definedName name="G1_M3_R3_Games">Turnier!$H$38</definedName>
+    <definedName name="G1_M3_R3_Wins">Turnier!$I$38</definedName>
+    <definedName name="G1_M3_R4_Games">Turnier!$M$53</definedName>
+    <definedName name="G1_M3_R4_Wins">Turnier!$N$53</definedName>
+    <definedName name="G1_M3_R5_Games">Turnier!$M$73</definedName>
+    <definedName name="G1_M3_R5_Wins">Turnier!$N$73</definedName>
     <definedName name="G1_M4">Spieler!$C$7</definedName>
-    <definedName name="G1_M4_R0_Games">Turnier!$H$7</definedName>
-    <definedName name="G1_M4_R0_Wins">Turnier!$I$7</definedName>
-    <definedName name="G1_M4_R1_Games">Turnier!$H$13</definedName>
-    <definedName name="G1_M4_R1_Wins">Turnier!$I$13</definedName>
-    <definedName name="G1_M4_R2_Games">Turnier!$H$28</definedName>
-    <definedName name="G1_M4_R2_Wins">Turnier!$I$28</definedName>
-    <definedName name="G1_M4_R3_Games">Turnier!$H$48</definedName>
-    <definedName name="G1_M4_R3_Wins">Turnier!$I$48</definedName>
-    <definedName name="G1_M4_R4_Games">Turnier!$M$58</definedName>
-    <definedName name="G1_M4_R4_Wins">Turnier!$N$58</definedName>
-    <definedName name="G1_M4_R5_Games">Turnier!$M$68</definedName>
-    <definedName name="G1_M4_R5_Wins">Turnier!$N$68</definedName>
+    <definedName name="G1_M4_R0_Games">Turnier!$H$2</definedName>
+    <definedName name="G1_M4_R0_Wins">Turnier!$I$2</definedName>
+    <definedName name="G1_M4_R1_Games">Turnier!$M$18</definedName>
+    <definedName name="G1_M4_R1_Wins">Turnier!$N$18</definedName>
+    <definedName name="G1_M4_R2_Games">Turnier!$H$27</definedName>
+    <definedName name="G1_M4_R2_Wins">Turnier!$I$27</definedName>
+    <definedName name="G1_M4_R3_Games">Turnier!$H$42</definedName>
+    <definedName name="G1_M4_R3_Wins">Turnier!$I$42</definedName>
+    <definedName name="G1_M4_R4_Games">Turnier!$M$62</definedName>
+    <definedName name="G1_M4_R4_Wins">Turnier!$N$62</definedName>
+    <definedName name="G1_M4_R5_Games">Turnier!$H$63</definedName>
+    <definedName name="G1_M4_R5_Wins">Turnier!$I$63</definedName>
     <definedName name="G1_M5">Spieler!$C$8</definedName>
     <definedName name="G1_M5_R0_Games">Turnier!$H$3</definedName>
     <definedName name="G1_M5_R0_Wins">Turnier!$I$3</definedName>
-    <definedName name="G1_M5_R1_Games">Turnier!$H$22</definedName>
-    <definedName name="G1_M5_R1_Wins">Turnier!$I$22</definedName>
+    <definedName name="G1_M5_R1_Games">Turnier!$H$23</definedName>
+    <definedName name="G1_M5_R1_Wins">Turnier!$I$23</definedName>
     <definedName name="G1_M5_R2_Games">Turnier!$M$28</definedName>
     <definedName name="G1_M5_R2_Wins">Turnier!$N$28</definedName>
-    <definedName name="G1_M5_R3_Games">Turnier!$H$38</definedName>
-    <definedName name="G1_M5_R3_Wins">Turnier!$I$38</definedName>
-    <definedName name="G1_M5_R4_Games">Turnier!$H$62</definedName>
-    <definedName name="G1_M5_R4_Wins">Turnier!$I$62</definedName>
-    <definedName name="G1_M5_R5_Games">Turnier!$M$73</definedName>
-    <definedName name="G1_M5_R5_Wins">Turnier!$N$73</definedName>
+    <definedName name="G1_M5_R3_Games">Turnier!$H$43</definedName>
+    <definedName name="G1_M5_R3_Wins">Turnier!$I$43</definedName>
+    <definedName name="G1_M5_R4_Games">Turnier!$M$57</definedName>
+    <definedName name="G1_M5_R4_Wins">Turnier!$N$57</definedName>
+    <definedName name="G1_M5_R5_Games">Turnier!$H$68</definedName>
+    <definedName name="G1_M5_R5_Wins">Turnier!$I$68</definedName>
     <definedName name="G1_M6">Spieler!$C$9</definedName>
-    <definedName name="G1_M6_R0_Games">Turnier!$H$8</definedName>
-    <definedName name="G1_M6_R0_Wins">Turnier!$I$8</definedName>
+    <definedName name="G1_M6_R0_Games">Turnier!$H$12</definedName>
+    <definedName name="G1_M6_R0_Wins">Turnier!$I$12</definedName>
     <definedName name="G1_M6_R1_Games">Turnier!$M$13</definedName>
     <definedName name="G1_M6_R1_Wins">Turnier!$N$13</definedName>
-    <definedName name="G1_M6_R2_Games">Turnier!$M$27</definedName>
-    <definedName name="G1_M6_R2_Wins">Turnier!$N$27</definedName>
-    <definedName name="G1_M6_R3_Games">Turnier!$H$42</definedName>
-    <definedName name="G1_M6_R3_Wins">Turnier!$I$42</definedName>
-    <definedName name="G1_M6_R4_Games">Turnier!$M$57</definedName>
-    <definedName name="G1_M6_R4_Wins">Turnier!$N$57</definedName>
-    <definedName name="G1_M6_R5_Games">Turnier!$H$67</definedName>
-    <definedName name="G1_M6_R5_Wins">Turnier!$I$67</definedName>
+    <definedName name="G1_M6_R2_Games">Turnier!$H$32</definedName>
+    <definedName name="G1_M6_R2_Wins">Turnier!$I$32</definedName>
+    <definedName name="G1_M6_R3_Games">Turnier!$M$42</definedName>
+    <definedName name="G1_M6_R3_Wins">Turnier!$N$42</definedName>
+    <definedName name="G1_M6_R4_Games">Turnier!$H$57</definedName>
+    <definedName name="G1_M6_R4_Wins">Turnier!$I$57</definedName>
+    <definedName name="G1_M6_R5_Games">Turnier!$H$72</definedName>
+    <definedName name="G1_M6_R5_Wins">Turnier!$I$72</definedName>
     <definedName name="G1_M7">Spieler!$C$10</definedName>
-    <definedName name="G1_M7_R0_Games">Turnier!$H$2</definedName>
-    <definedName name="G1_M7_R0_Wins">Turnier!$I$2</definedName>
-    <definedName name="G1_M7_R1_Games">Turnier!$H$18</definedName>
-    <definedName name="G1_M7_R1_Wins">Turnier!$I$18</definedName>
-    <definedName name="G1_M7_R2_Games">Turnier!$H$27</definedName>
-    <definedName name="G1_M7_R2_Wins">Turnier!$I$27</definedName>
+    <definedName name="G1_M7_R0_Games">Turnier!$H$7</definedName>
+    <definedName name="G1_M7_R0_Wins">Turnier!$I$7</definedName>
+    <definedName name="G1_M7_R1_Games">Turnier!$H$17</definedName>
+    <definedName name="G1_M7_R1_Wins">Turnier!$I$17</definedName>
+    <definedName name="G1_M7_R2_Games">Turnier!$M$27</definedName>
+    <definedName name="G1_M7_R2_Wins">Turnier!$N$27</definedName>
     <definedName name="G1_M7_R3_Games">Turnier!$M$38</definedName>
     <definedName name="G1_M7_R3_Wins">Turnier!$N$38</definedName>
-    <definedName name="G1_M7_R4_Games">Turnier!$H$53</definedName>
-    <definedName name="G1_M7_R4_Wins">Turnier!$I$53</definedName>
-    <definedName name="G1_M7_R5_Games">Turnier!$H$68</definedName>
-    <definedName name="G1_M7_R5_Wins">Turnier!$I$68</definedName>
+    <definedName name="G1_M7_R4_Games">Turnier!$H$58</definedName>
+    <definedName name="G1_M7_R4_Wins">Turnier!$I$58</definedName>
+    <definedName name="G1_M7_R5_Games">Turnier!$M$68</definedName>
+    <definedName name="G1_M7_R5_Wins">Turnier!$N$68</definedName>
     <definedName name="G1_M8">Spieler!$C$11</definedName>
     <definedName name="G1_M8_R0_Games">Turnier!$M$3</definedName>
     <definedName name="G1_M8_R0_Wins">Turnier!$N$3</definedName>
-    <definedName name="G1_M8_R1_Games">Turnier!$H$17</definedName>
-    <definedName name="G1_M8_R1_Wins">Turnier!$I$17</definedName>
-    <definedName name="G1_M8_R2_Games">Turnier!$M$32</definedName>
-    <definedName name="G1_M8_R2_Wins">Turnier!$N$32</definedName>
-    <definedName name="G1_M8_R3_Games">Turnier!$H$47</definedName>
-    <definedName name="G1_M8_R3_Wins">Turnier!$I$47</definedName>
-    <definedName name="G1_M8_R4_Games">Turnier!$H$58</definedName>
-    <definedName name="G1_M8_R4_Wins">Turnier!$I$58</definedName>
+    <definedName name="G1_M8_R1_Games">Turnier!$M$17</definedName>
+    <definedName name="G1_M8_R1_Wins">Turnier!$N$17</definedName>
+    <definedName name="G1_M8_R2_Games">Turnier!$H$37</definedName>
+    <definedName name="G1_M8_R2_Wins">Turnier!$I$37</definedName>
+    <definedName name="G1_M8_R3_Games">Turnier!$M$47</definedName>
+    <definedName name="G1_M8_R3_Wins">Turnier!$N$47</definedName>
+    <definedName name="G1_M8_R4_Games">Turnier!$M$52</definedName>
+    <definedName name="G1_M8_R4_Wins">Turnier!$N$52</definedName>
     <definedName name="G1_M8_R5_Games">Turnier!$M$67</definedName>
     <definedName name="G1_M8_R5_Wins">Turnier!$N$67</definedName>
     <definedName name="G1_M9">Spieler!$C$12</definedName>
     <definedName name="G1_M9_R0_Games">Turnier!$M$2</definedName>
     <definedName name="G1_M9_R0_Wins">Turnier!$N$2</definedName>
-    <definedName name="G1_M9_R1_Games">Turnier!$H$23</definedName>
-    <definedName name="G1_M9_R1_Wins">Turnier!$I$23</definedName>
-    <definedName name="G1_M9_R2_Games">Turnier!$H$32</definedName>
-    <definedName name="G1_M9_R2_Wins">Turnier!$I$32</definedName>
-    <definedName name="G1_M9_R3_Games">Turnier!$H$43</definedName>
-    <definedName name="G1_M9_R3_Wins">Turnier!$I$43</definedName>
-    <definedName name="G1_M9_R4_Games">Turnier!$M$52</definedName>
-    <definedName name="G1_M9_R4_Wins">Turnier!$N$52</definedName>
+    <definedName name="G1_M9_R1_Games">Turnier!$H$13</definedName>
+    <definedName name="G1_M9_R1_Wins">Turnier!$I$13</definedName>
+    <definedName name="G1_M9_R2_Games">Turnier!$H$28</definedName>
+    <definedName name="G1_M9_R2_Wins">Turnier!$I$28</definedName>
+    <definedName name="G1_M9_R3_Games">Turnier!$H$47</definedName>
+    <definedName name="G1_M9_R3_Wins">Turnier!$I$47</definedName>
+    <definedName name="G1_M9_R4_Games">Turnier!$M$58</definedName>
+    <definedName name="G1_M9_R4_Wins">Turnier!$N$58</definedName>
     <definedName name="G1_M9_R5_Games">Turnier!$H$73</definedName>
     <definedName name="G1_M9_R5_Wins">Turnier!$I$73</definedName>
     <definedName name="G1_W0">Spieler!$H$3</definedName>
@@ -148,12 +148,12 @@
     <definedName name="G1_W0_R1_Wins">Turnier!$I$22</definedName>
     <definedName name="G1_W0_R2_Games">Turnier!$M$37</definedName>
     <definedName name="G1_W0_R2_Wins">Turnier!$N$37</definedName>
-    <definedName name="G1_W0_R3_Games">Turnier!$M$38</definedName>
-    <definedName name="G1_W0_R3_Wins">Turnier!$N$38</definedName>
+    <definedName name="G1_W0_R3_Games">Turnier!$H$38</definedName>
+    <definedName name="G1_W0_R3_Wins">Turnier!$I$38</definedName>
     <definedName name="G1_W0_R4_Games">Turnier!$H$58</definedName>
     <definedName name="G1_W0_R4_Wins">Turnier!$I$58</definedName>
-    <definedName name="G1_W0_R5_Games">Turnier!$M$68</definedName>
-    <definedName name="G1_W0_R5_Wins">Turnier!$N$68</definedName>
+    <definedName name="G1_W0_R5_Games">Turnier!$M$67</definedName>
+    <definedName name="G1_W0_R5_Wins">Turnier!$N$67</definedName>
     <definedName name="G1_W1">Spieler!$H$4</definedName>
     <definedName name="G1_W1_R0_Games">Turnier!$M$12</definedName>
     <definedName name="G1_W1_R0_Wins">Turnier!$N$12</definedName>
@@ -161,12 +161,12 @@
     <definedName name="G1_W1_R1_Wins">Turnier!$I$23</definedName>
     <definedName name="G1_W1_R2_Games">Turnier!$H$33</definedName>
     <definedName name="G1_W1_R2_Wins">Turnier!$I$33</definedName>
-    <definedName name="G1_W1_R3_Games">Turnier!$M$47</definedName>
-    <definedName name="G1_W1_R3_Wins">Turnier!$N$47</definedName>
-    <definedName name="G1_W1_R4_Games">Turnier!$H$57</definedName>
-    <definedName name="G1_W1_R4_Wins">Turnier!$I$57</definedName>
-    <definedName name="G1_W1_R5_Games">Turnier!$M$73</definedName>
-    <definedName name="G1_W1_R5_Wins">Turnier!$N$73</definedName>
+    <definedName name="G1_W1_R3_Games">Turnier!$H$47</definedName>
+    <definedName name="G1_W1_R3_Wins">Turnier!$I$47</definedName>
+    <definedName name="G1_W1_R4_Games">Turnier!$H$62</definedName>
+    <definedName name="G1_W1_R4_Wins">Turnier!$I$62</definedName>
+    <definedName name="G1_W1_R5_Games">Turnier!$M$68</definedName>
+    <definedName name="G1_W1_R5_Wins">Turnier!$N$68</definedName>
     <definedName name="G1_W2">Spieler!$H$5</definedName>
     <definedName name="G1_W2_R0_Games">Turnier!$H$8</definedName>
     <definedName name="G1_W2_R0_Wins">Turnier!$I$8</definedName>
@@ -176,49 +176,49 @@
     <definedName name="G1_W2_R2_Wins">Turnier!$I$37</definedName>
     <definedName name="G1_W2_R3_Games">Turnier!$H$43</definedName>
     <definedName name="G1_W2_R3_Wins">Turnier!$I$43</definedName>
-    <definedName name="G1_W2_R4_Games">Turnier!$M$53</definedName>
-    <definedName name="G1_W2_R4_Wins">Turnier!$N$53</definedName>
-    <definedName name="G1_W2_R5_Games">Turnier!$M$67</definedName>
-    <definedName name="G1_W2_R5_Wins">Turnier!$N$67</definedName>
+    <definedName name="G1_W2_R4_Games">Turnier!$H$52</definedName>
+    <definedName name="G1_W2_R4_Wins">Turnier!$I$52</definedName>
+    <definedName name="G1_W2_R5_Games">Turnier!$H$73</definedName>
+    <definedName name="G1_W2_R5_Wins">Turnier!$I$73</definedName>
     <definedName name="G1_W3">Spieler!$H$6</definedName>
     <definedName name="G1_W3_R0_Games">Turnier!$M$8</definedName>
     <definedName name="G1_W3_R0_Wins">Turnier!$N$8</definedName>
-    <definedName name="G1_W3_R1_Games">Turnier!$H$18</definedName>
-    <definedName name="G1_W3_R1_Wins">Turnier!$I$18</definedName>
-    <definedName name="G1_W3_R2_Games">Turnier!$M$32</definedName>
-    <definedName name="G1_W3_R2_Wins">Turnier!$N$32</definedName>
-    <definedName name="G1_W3_R3_Games">Turnier!$H$38</definedName>
-    <definedName name="G1_W3_R3_Wins">Turnier!$I$38</definedName>
-    <definedName name="G1_W3_R4_Games">Turnier!$M$52</definedName>
-    <definedName name="G1_W3_R4_Wins">Turnier!$N$52</definedName>
-    <definedName name="G1_W3_R5_Games">Turnier!$M$72</definedName>
-    <definedName name="G1_W3_R5_Wins">Turnier!$N$72</definedName>
+    <definedName name="G1_W3_R1_Games">Turnier!$M$22</definedName>
+    <definedName name="G1_W3_R1_Wins">Turnier!$N$22</definedName>
+    <definedName name="G1_W3_R2_Games">Turnier!$M$33</definedName>
+    <definedName name="G1_W3_R2_Wins">Turnier!$N$33</definedName>
+    <definedName name="G1_W3_R3_Games">Turnier!$H$42</definedName>
+    <definedName name="G1_W3_R3_Wins">Turnier!$I$42</definedName>
+    <definedName name="G1_W3_R4_Games">Turnier!$H$57</definedName>
+    <definedName name="G1_W3_R4_Wins">Turnier!$I$57</definedName>
+    <definedName name="G1_W3_R5_Games">Turnier!$M$63</definedName>
+    <definedName name="G1_W3_R5_Wins">Turnier!$N$63</definedName>
     <definedName name="G1_W4">Spieler!$H$7</definedName>
     <definedName name="G1_W4_R0_Games">Turnier!$H$7</definedName>
     <definedName name="G1_W4_R0_Wins">Turnier!$I$7</definedName>
-    <definedName name="G1_W4_R1_Games">Turnier!$M$22</definedName>
-    <definedName name="G1_W4_R1_Wins">Turnier!$N$22</definedName>
-    <definedName name="G1_W4_R2_Games">Turnier!$M$28</definedName>
-    <definedName name="G1_W4_R2_Wins">Turnier!$N$28</definedName>
-    <definedName name="G1_W4_R3_Games">Turnier!$H$47</definedName>
-    <definedName name="G1_W4_R3_Wins">Turnier!$I$47</definedName>
-    <definedName name="G1_W4_R4_Games">Turnier!$H$52</definedName>
-    <definedName name="G1_W4_R4_Wins">Turnier!$I$52</definedName>
-    <definedName name="G1_W4_R5_Games">Turnier!$H$67</definedName>
-    <definedName name="G1_W4_R5_Wins">Turnier!$I$67</definedName>
+    <definedName name="G1_W4_R1_Games">Turnier!$H$18</definedName>
+    <definedName name="G1_W4_R1_Wins">Turnier!$I$18</definedName>
+    <definedName name="G1_W4_R2_Games">Turnier!$H$32</definedName>
+    <definedName name="G1_W4_R2_Wins">Turnier!$I$32</definedName>
+    <definedName name="G1_W4_R3_Games">Turnier!$H$48</definedName>
+    <definedName name="G1_W4_R3_Wins">Turnier!$I$48</definedName>
+    <definedName name="G1_W4_R4_Games">Turnier!$H$53</definedName>
+    <definedName name="G1_W4_R4_Wins">Turnier!$I$53</definedName>
+    <definedName name="G1_W4_R5_Games">Turnier!$H$68</definedName>
+    <definedName name="G1_W4_R5_Wins">Turnier!$I$68</definedName>
     <definedName name="G1_W5">Spieler!$H$8</definedName>
     <definedName name="G1_W5_R0_Games">Turnier!$M$7</definedName>
     <definedName name="G1_W5_R0_Wins">Turnier!$N$7</definedName>
-    <definedName name="G1_W5_R1_Games">Turnier!$H$17</definedName>
-    <definedName name="G1_W5_R1_Wins">Turnier!$I$17</definedName>
-    <definedName name="G1_W5_R2_Games">Turnier!$M$27</definedName>
-    <definedName name="G1_W5_R2_Wins">Turnier!$N$27</definedName>
-    <definedName name="G1_W5_R3_Games">Turnier!$M$42</definedName>
-    <definedName name="G1_W5_R3_Wins">Turnier!$N$42</definedName>
-    <definedName name="G1_W5_R4_Games">Turnier!$H$62</definedName>
-    <definedName name="G1_W5_R4_Wins">Turnier!$I$62</definedName>
-    <definedName name="G1_W5_R5_Games">Turnier!$H$73</definedName>
-    <definedName name="G1_W5_R5_Wins">Turnier!$I$73</definedName>
+    <definedName name="G1_W5_R1_Games">Turnier!$H$13</definedName>
+    <definedName name="G1_W5_R1_Wins">Turnier!$I$13</definedName>
+    <definedName name="G1_W5_R2_Games">Turnier!$M$28</definedName>
+    <definedName name="G1_W5_R2_Wins">Turnier!$N$28</definedName>
+    <definedName name="G1_W5_R3_Games">Turnier!$M$38</definedName>
+    <definedName name="G1_W5_R3_Wins">Turnier!$N$38</definedName>
+    <definedName name="G1_W5_R4_Games">Turnier!$M$52</definedName>
+    <definedName name="G1_W5_R4_Wins">Turnier!$N$52</definedName>
+    <definedName name="G1_W5_R5_Games">Turnier!$H$63</definedName>
+    <definedName name="G1_W5_R5_Wins">Turnier!$I$63</definedName>
     <definedName name="G1_W6">Spieler!$H$9</definedName>
     <definedName name="G1_W6_R0_Games">Turnier!$H$2</definedName>
     <definedName name="G1_W6_R0_Wins">Turnier!$I$2</definedName>
@@ -230,8 +230,8 @@
     <definedName name="G1_W6_R3_Wins">Turnier!$N$48</definedName>
     <definedName name="G1_W6_R4_Games">Turnier!$M$57</definedName>
     <definedName name="G1_W6_R4_Wins">Turnier!$N$57</definedName>
-    <definedName name="G1_W6_R5_Games">Turnier!$H$63</definedName>
-    <definedName name="G1_W6_R5_Wins">Turnier!$I$63</definedName>
+    <definedName name="G1_W6_R5_Games">Turnier!$H$72</definedName>
+    <definedName name="G1_W6_R5_Wins">Turnier!$I$72</definedName>
     <definedName name="G1_W7">Spieler!$H$10</definedName>
     <definedName name="G1_W7_R0_Games">Turnier!$M$2</definedName>
     <definedName name="G1_W7_R0_Wins">Turnier!$N$2</definedName>
@@ -241,36 +241,36 @@
     <definedName name="G1_W7_R2_Wins">Turnier!$I$27</definedName>
     <definedName name="G1_W7_R3_Games">Turnier!$M$43</definedName>
     <definedName name="G1_W7_R3_Wins">Turnier!$N$43</definedName>
-    <definedName name="G1_W7_R4_Games">Turnier!$M$58</definedName>
-    <definedName name="G1_W7_R4_Wins">Turnier!$N$58</definedName>
-    <definedName name="G1_W7_R5_Games">Turnier!$H$72</definedName>
-    <definedName name="G1_W7_R5_Wins">Turnier!$I$72</definedName>
+    <definedName name="G1_W7_R4_Games">Turnier!$M$53</definedName>
+    <definedName name="G1_W7_R4_Wins">Turnier!$N$53</definedName>
+    <definedName name="G1_W7_R5_Games">Turnier!$H$67</definedName>
+    <definedName name="G1_W7_R5_Wins">Turnier!$I$67</definedName>
     <definedName name="G1_W8">Spieler!$H$11</definedName>
     <definedName name="G1_W8_R0_Games">Turnier!$H$3</definedName>
     <definedName name="G1_W8_R0_Wins">Turnier!$I$3</definedName>
     <definedName name="G1_W8_R1_Games">Turnier!$M$18</definedName>
     <definedName name="G1_W8_R1_Wins">Turnier!$N$18</definedName>
-    <definedName name="G1_W8_R2_Games">Turnier!$M$33</definedName>
-    <definedName name="G1_W8_R2_Wins">Turnier!$N$33</definedName>
-    <definedName name="G1_W8_R3_Games">Turnier!$H$48</definedName>
-    <definedName name="G1_W8_R3_Wins">Turnier!$I$48</definedName>
-    <definedName name="G1_W8_R4_Games">Turnier!$M$62</definedName>
-    <definedName name="G1_W8_R4_Wins">Turnier!$N$62</definedName>
-    <definedName name="G1_W8_R5_Games">Turnier!$H$68</definedName>
-    <definedName name="G1_W8_R5_Wins">Turnier!$I$68</definedName>
+    <definedName name="G1_W8_R2_Games">Turnier!$M$27</definedName>
+    <definedName name="G1_W8_R2_Wins">Turnier!$N$27</definedName>
+    <definedName name="G1_W8_R3_Games">Turnier!$M$47</definedName>
+    <definedName name="G1_W8_R3_Wins">Turnier!$N$47</definedName>
+    <definedName name="G1_W8_R4_Games">Turnier!$M$58</definedName>
+    <definedName name="G1_W8_R4_Wins">Turnier!$N$58</definedName>
+    <definedName name="G1_W8_R5_Games">Turnier!$M$72</definedName>
+    <definedName name="G1_W8_R5_Wins">Turnier!$N$72</definedName>
     <definedName name="G1_W9">Spieler!$H$12</definedName>
     <definedName name="G1_W9_R0_Games">Turnier!$M$3</definedName>
     <definedName name="G1_W9_R0_Wins">Turnier!$N$3</definedName>
-    <definedName name="G1_W9_R1_Games">Turnier!$H$13</definedName>
-    <definedName name="G1_W9_R1_Wins">Turnier!$I$13</definedName>
-    <definedName name="G1_W9_R2_Games">Turnier!$H$32</definedName>
-    <definedName name="G1_W9_R2_Wins">Turnier!$I$32</definedName>
-    <definedName name="G1_W9_R3_Games">Turnier!$H$42</definedName>
-    <definedName name="G1_W9_R3_Wins">Turnier!$I$42</definedName>
-    <definedName name="G1_W9_R4_Games">Turnier!$H$53</definedName>
-    <definedName name="G1_W9_R4_Wins">Turnier!$I$53</definedName>
-    <definedName name="G1_W9_R5_Games">Turnier!$M$63</definedName>
-    <definedName name="G1_W9_R5_Wins">Turnier!$N$63</definedName>
+    <definedName name="G1_W9_R1_Games">Turnier!$H$17</definedName>
+    <definedName name="G1_W9_R1_Wins">Turnier!$I$17</definedName>
+    <definedName name="G1_W9_R2_Games">Turnier!$M$32</definedName>
+    <definedName name="G1_W9_R2_Wins">Turnier!$N$32</definedName>
+    <definedName name="G1_W9_R3_Games">Turnier!$M$42</definedName>
+    <definedName name="G1_W9_R3_Wins">Turnier!$N$42</definedName>
+    <definedName name="G1_W9_R4_Games">Turnier!$M$62</definedName>
+    <definedName name="G1_W9_R4_Wins">Turnier!$N$62</definedName>
+    <definedName name="G1_W9_R5_Games">Turnier!$M$73</definedName>
+    <definedName name="G1_W9_R5_Wins">Turnier!$N$73</definedName>
     <definedName name="G2_M0">Spieler!$C$15</definedName>
     <definedName name="G2_M0_R0_Games">Turnier!$M$14</definedName>
     <definedName name="G2_M0_R0_Wins">Turnier!$N$14</definedName>
@@ -280,125 +280,125 @@
     <definedName name="G2_M0_R2_Wins">Turnier!$N$39</definedName>
     <definedName name="G2_M0_R3_Games">Turnier!$M$50</definedName>
     <definedName name="G2_M0_R3_Wins">Turnier!$N$50</definedName>
-    <definedName name="G2_M0_R4_Games">Turnier!$M$64</definedName>
-    <definedName name="G2_M0_R4_Wins">Turnier!$N$64</definedName>
-    <definedName name="G2_M0_R5_Games">Turnier!$M$74</definedName>
-    <definedName name="G2_M0_R5_Wins">Turnier!$N$74</definedName>
+    <definedName name="G2_M0_R4_Games">Turnier!$H$55</definedName>
+    <definedName name="G2_M0_R4_Wins">Turnier!$I$55</definedName>
+    <definedName name="G2_M0_R5_Games">Turnier!$M$65</definedName>
+    <definedName name="G2_M0_R5_Wins">Turnier!$N$65</definedName>
     <definedName name="G2_M1">Spieler!$C$16</definedName>
     <definedName name="G2_M1_R0_Games">Turnier!$M$10</definedName>
     <definedName name="G2_M1_R0_Wins">Turnier!$N$10</definedName>
-    <definedName name="G2_M1_R1_Games">Turnier!$M$24</definedName>
-    <definedName name="G2_M1_R1_Wins">Turnier!$N$24</definedName>
-    <definedName name="G2_M1_R2_Games">Turnier!$M$35</definedName>
-    <definedName name="G2_M1_R2_Wins">Turnier!$N$35</definedName>
-    <definedName name="G2_M1_R3_Games">Turnier!$M$49</definedName>
-    <definedName name="G2_M1_R3_Wins">Turnier!$N$49</definedName>
-    <definedName name="G2_M1_R4_Games">Turnier!$M$55</definedName>
-    <definedName name="G2_M1_R4_Wins">Turnier!$N$55</definedName>
-    <definedName name="G2_M1_R5_Games">Turnier!$H$74</definedName>
-    <definedName name="G2_M1_R5_Wins">Turnier!$I$74</definedName>
+    <definedName name="G2_M1_R1_Games">Turnier!$H$24</definedName>
+    <definedName name="G2_M1_R1_Wins">Turnier!$I$24</definedName>
+    <definedName name="G2_M1_R2_Games">Turnier!$M$34</definedName>
+    <definedName name="G2_M1_R2_Wins">Turnier!$N$34</definedName>
+    <definedName name="G2_M1_R3_Games">Turnier!$H$50</definedName>
+    <definedName name="G2_M1_R3_Wins">Turnier!$I$50</definedName>
+    <definedName name="G2_M1_R4_Games">Turnier!$H$64</definedName>
+    <definedName name="G2_M1_R4_Wins">Turnier!$I$64</definedName>
+    <definedName name="G2_M1_R5_Games">Turnier!$H$69</definedName>
+    <definedName name="G2_M1_R5_Wins">Turnier!$I$69</definedName>
     <definedName name="G2_M2">Spieler!$C$17</definedName>
     <definedName name="G2_M2_R0_Games">Turnier!$M$9</definedName>
     <definedName name="G2_M2_R0_Wins">Turnier!$N$9</definedName>
-    <definedName name="G2_M2_R1_Games">Turnier!$M$20</definedName>
-    <definedName name="G2_M2_R1_Wins">Turnier!$N$20</definedName>
-    <definedName name="G2_M2_R2_Games">Turnier!$H$39</definedName>
-    <definedName name="G2_M2_R2_Wins">Turnier!$I$39</definedName>
+    <definedName name="G2_M2_R1_Games">Turnier!$M$24</definedName>
+    <definedName name="G2_M2_R1_Wins">Turnier!$N$24</definedName>
+    <definedName name="G2_M2_R2_Games">Turnier!$H$35</definedName>
+    <definedName name="G2_M2_R2_Wins">Turnier!$I$35</definedName>
     <definedName name="G2_M2_R3_Games">Turnier!$M$45</definedName>
     <definedName name="G2_M2_R3_Wins">Turnier!$N$45</definedName>
-    <definedName name="G2_M2_R4_Games">Turnier!$H$59</definedName>
-    <definedName name="G2_M2_R4_Wins">Turnier!$I$59</definedName>
-    <definedName name="G2_M2_R5_Games">Turnier!$H$65</definedName>
-    <definedName name="G2_M2_R5_Wins">Turnier!$I$65</definedName>
+    <definedName name="G2_M2_R4_Games">Turnier!$H$54</definedName>
+    <definedName name="G2_M2_R4_Wins">Turnier!$I$54</definedName>
+    <definedName name="G2_M2_R5_Games">Turnier!$M$74</definedName>
+    <definedName name="G2_M2_R5_Wins">Turnier!$N$74</definedName>
     <definedName name="G2_M3">Spieler!$C$18</definedName>
-    <definedName name="G2_M3_R0_Games">Turnier!$H$14</definedName>
-    <definedName name="G2_M3_R0_Wins">Turnier!$I$14</definedName>
-    <definedName name="G2_M3_R1_Games">Turnier!$M$19</definedName>
-    <definedName name="G2_M3_R1_Wins">Turnier!$N$19</definedName>
-    <definedName name="G2_M3_R2_Games">Turnier!$H$35</definedName>
-    <definedName name="G2_M3_R2_Wins">Turnier!$I$35</definedName>
-    <definedName name="G2_M3_R3_Games">Turnier!$M$44</definedName>
-    <definedName name="G2_M3_R3_Wins">Turnier!$N$44</definedName>
-    <definedName name="G2_M3_R4_Games">Turnier!$H$54</definedName>
-    <definedName name="G2_M3_R4_Wins">Turnier!$I$54</definedName>
-    <definedName name="G2_M3_R5_Games">Turnier!$M$65</definedName>
-    <definedName name="G2_M3_R5_Wins">Turnier!$N$65</definedName>
+    <definedName name="G2_M3_R0_Games">Turnier!$H$10</definedName>
+    <definedName name="G2_M3_R0_Wins">Turnier!$I$10</definedName>
+    <definedName name="G2_M3_R1_Games">Turnier!$H$20</definedName>
+    <definedName name="G2_M3_R1_Wins">Turnier!$I$20</definedName>
+    <definedName name="G2_M3_R2_Games">Turnier!$M$35</definedName>
+    <definedName name="G2_M3_R2_Wins">Turnier!$N$35</definedName>
+    <definedName name="G2_M3_R3_Games">Turnier!$H$40</definedName>
+    <definedName name="G2_M3_R3_Wins">Turnier!$I$40</definedName>
+    <definedName name="G2_M3_R4_Games">Turnier!$M$55</definedName>
+    <definedName name="G2_M3_R4_Wins">Turnier!$N$55</definedName>
+    <definedName name="G2_M3_R5_Games">Turnier!$M$75</definedName>
+    <definedName name="G2_M3_R5_Wins">Turnier!$N$75</definedName>
     <definedName name="G2_M4">Spieler!$C$19</definedName>
-    <definedName name="G2_M4_R0_Games">Turnier!$H$9</definedName>
-    <definedName name="G2_M4_R0_Wins">Turnier!$I$9</definedName>
-    <definedName name="G2_M4_R1_Games">Turnier!$H$15</definedName>
-    <definedName name="G2_M4_R1_Wins">Turnier!$I$15</definedName>
-    <definedName name="G2_M4_R2_Games">Turnier!$H$30</definedName>
-    <definedName name="G2_M4_R2_Wins">Turnier!$I$30</definedName>
-    <definedName name="G2_M4_R3_Games">Turnier!$H$50</definedName>
-    <definedName name="G2_M4_R3_Wins">Turnier!$I$50</definedName>
-    <definedName name="G2_M4_R4_Games">Turnier!$M$60</definedName>
-    <definedName name="G2_M4_R4_Wins">Turnier!$N$60</definedName>
-    <definedName name="G2_M4_R5_Games">Turnier!$M$70</definedName>
-    <definedName name="G2_M4_R5_Wins">Turnier!$N$70</definedName>
+    <definedName name="G2_M4_R0_Games">Turnier!$H$4</definedName>
+    <definedName name="G2_M4_R0_Wins">Turnier!$I$4</definedName>
+    <definedName name="G2_M4_R1_Games">Turnier!$M$20</definedName>
+    <definedName name="G2_M4_R1_Wins">Turnier!$N$20</definedName>
+    <definedName name="G2_M4_R2_Games">Turnier!$H$29</definedName>
+    <definedName name="G2_M4_R2_Wins">Turnier!$I$29</definedName>
+    <definedName name="G2_M4_R3_Games">Turnier!$H$44</definedName>
+    <definedName name="G2_M4_R3_Wins">Turnier!$I$44</definedName>
+    <definedName name="G2_M4_R4_Games">Turnier!$M$64</definedName>
+    <definedName name="G2_M4_R4_Wins">Turnier!$N$64</definedName>
+    <definedName name="G2_M4_R5_Games">Turnier!$H$65</definedName>
+    <definedName name="G2_M4_R5_Wins">Turnier!$I$65</definedName>
     <definedName name="G2_M5">Spieler!$C$20</definedName>
     <definedName name="G2_M5_R0_Games">Turnier!$H$5</definedName>
     <definedName name="G2_M5_R0_Wins">Turnier!$I$5</definedName>
-    <definedName name="G2_M5_R1_Games">Turnier!$H$24</definedName>
-    <definedName name="G2_M5_R1_Wins">Turnier!$I$24</definedName>
+    <definedName name="G2_M5_R1_Games">Turnier!$H$25</definedName>
+    <definedName name="G2_M5_R1_Wins">Turnier!$I$25</definedName>
     <definedName name="G2_M5_R2_Games">Turnier!$M$30</definedName>
     <definedName name="G2_M5_R2_Wins">Turnier!$N$30</definedName>
-    <definedName name="G2_M5_R3_Games">Turnier!$H$40</definedName>
-    <definedName name="G2_M5_R3_Wins">Turnier!$I$40</definedName>
-    <definedName name="G2_M5_R4_Games">Turnier!$H$64</definedName>
-    <definedName name="G2_M5_R4_Wins">Turnier!$I$64</definedName>
-    <definedName name="G2_M5_R5_Games">Turnier!$M$75</definedName>
-    <definedName name="G2_M5_R5_Wins">Turnier!$N$75</definedName>
+    <definedName name="G2_M5_R3_Games">Turnier!$H$45</definedName>
+    <definedName name="G2_M5_R3_Wins">Turnier!$I$45</definedName>
+    <definedName name="G2_M5_R4_Games">Turnier!$M$59</definedName>
+    <definedName name="G2_M5_R4_Wins">Turnier!$N$59</definedName>
+    <definedName name="G2_M5_R5_Games">Turnier!$H$70</definedName>
+    <definedName name="G2_M5_R5_Wins">Turnier!$I$70</definedName>
     <definedName name="G2_M6">Spieler!$C$21</definedName>
-    <definedName name="G2_M6_R0_Games">Turnier!$H$10</definedName>
-    <definedName name="G2_M6_R0_Wins">Turnier!$I$10</definedName>
+    <definedName name="G2_M6_R0_Games">Turnier!$H$14</definedName>
+    <definedName name="G2_M6_R0_Wins">Turnier!$I$14</definedName>
     <definedName name="G2_M6_R1_Games">Turnier!$M$15</definedName>
     <definedName name="G2_M6_R1_Wins">Turnier!$N$15</definedName>
-    <definedName name="G2_M6_R2_Games">Turnier!$M$29</definedName>
-    <definedName name="G2_M6_R2_Wins">Turnier!$N$29</definedName>
-    <definedName name="G2_M6_R3_Games">Turnier!$H$44</definedName>
-    <definedName name="G2_M6_R3_Wins">Turnier!$I$44</definedName>
-    <definedName name="G2_M6_R4_Games">Turnier!$M$59</definedName>
-    <definedName name="G2_M6_R4_Wins">Turnier!$N$59</definedName>
-    <definedName name="G2_M6_R5_Games">Turnier!$H$69</definedName>
-    <definedName name="G2_M6_R5_Wins">Turnier!$I$69</definedName>
+    <definedName name="G2_M6_R2_Games">Turnier!$H$34</definedName>
+    <definedName name="G2_M6_R2_Wins">Turnier!$I$34</definedName>
+    <definedName name="G2_M6_R3_Games">Turnier!$M$44</definedName>
+    <definedName name="G2_M6_R3_Wins">Turnier!$N$44</definedName>
+    <definedName name="G2_M6_R4_Games">Turnier!$H$59</definedName>
+    <definedName name="G2_M6_R4_Wins">Turnier!$I$59</definedName>
+    <definedName name="G2_M6_R5_Games">Turnier!$H$74</definedName>
+    <definedName name="G2_M6_R5_Wins">Turnier!$I$74</definedName>
     <definedName name="G2_M7">Spieler!$C$22</definedName>
-    <definedName name="G2_M7_R0_Games">Turnier!$H$4</definedName>
-    <definedName name="G2_M7_R0_Wins">Turnier!$I$4</definedName>
-    <definedName name="G2_M7_R1_Games">Turnier!$H$20</definedName>
-    <definedName name="G2_M7_R1_Wins">Turnier!$I$20</definedName>
-    <definedName name="G2_M7_R2_Games">Turnier!$H$29</definedName>
-    <definedName name="G2_M7_R2_Wins">Turnier!$I$29</definedName>
+    <definedName name="G2_M7_R0_Games">Turnier!$H$9</definedName>
+    <definedName name="G2_M7_R0_Wins">Turnier!$I$9</definedName>
+    <definedName name="G2_M7_R1_Games">Turnier!$H$19</definedName>
+    <definedName name="G2_M7_R1_Wins">Turnier!$I$19</definedName>
+    <definedName name="G2_M7_R2_Games">Turnier!$M$29</definedName>
+    <definedName name="G2_M7_R2_Wins">Turnier!$N$29</definedName>
     <definedName name="G2_M7_R3_Games">Turnier!$M$40</definedName>
     <definedName name="G2_M7_R3_Wins">Turnier!$N$40</definedName>
-    <definedName name="G2_M7_R4_Games">Turnier!$H$55</definedName>
-    <definedName name="G2_M7_R4_Wins">Turnier!$I$55</definedName>
-    <definedName name="G2_M7_R5_Games">Turnier!$H$70</definedName>
-    <definedName name="G2_M7_R5_Wins">Turnier!$I$70</definedName>
+    <definedName name="G2_M7_R4_Games">Turnier!$H$60</definedName>
+    <definedName name="G2_M7_R4_Wins">Turnier!$I$60</definedName>
+    <definedName name="G2_M7_R5_Games">Turnier!$M$70</definedName>
+    <definedName name="G2_M7_R5_Wins">Turnier!$N$70</definedName>
     <definedName name="G2_M8">Spieler!$C$23</definedName>
     <definedName name="G2_M8_R0_Games">Turnier!$M$5</definedName>
     <definedName name="G2_M8_R0_Wins">Turnier!$N$5</definedName>
-    <definedName name="G2_M8_R1_Games">Turnier!$H$19</definedName>
-    <definedName name="G2_M8_R1_Wins">Turnier!$I$19</definedName>
-    <definedName name="G2_M8_R2_Games">Turnier!$M$34</definedName>
-    <definedName name="G2_M8_R2_Wins">Turnier!$N$34</definedName>
-    <definedName name="G2_M8_R3_Games">Turnier!$H$49</definedName>
-    <definedName name="G2_M8_R3_Wins">Turnier!$I$49</definedName>
-    <definedName name="G2_M8_R4_Games">Turnier!$H$60</definedName>
-    <definedName name="G2_M8_R4_Wins">Turnier!$I$60</definedName>
+    <definedName name="G2_M8_R1_Games">Turnier!$M$19</definedName>
+    <definedName name="G2_M8_R1_Wins">Turnier!$N$19</definedName>
+    <definedName name="G2_M8_R2_Games">Turnier!$H$39</definedName>
+    <definedName name="G2_M8_R2_Wins">Turnier!$I$39</definedName>
+    <definedName name="G2_M8_R3_Games">Turnier!$M$49</definedName>
+    <definedName name="G2_M8_R3_Wins">Turnier!$N$49</definedName>
+    <definedName name="G2_M8_R4_Games">Turnier!$M$54</definedName>
+    <definedName name="G2_M8_R4_Wins">Turnier!$N$54</definedName>
     <definedName name="G2_M8_R5_Games">Turnier!$M$69</definedName>
     <definedName name="G2_M8_R5_Wins">Turnier!$N$69</definedName>
     <definedName name="G2_M9">Spieler!$C$24</definedName>
     <definedName name="G2_M9_R0_Games">Turnier!$M$4</definedName>
     <definedName name="G2_M9_R0_Wins">Turnier!$N$4</definedName>
-    <definedName name="G2_M9_R1_Games">Turnier!$H$25</definedName>
-    <definedName name="G2_M9_R1_Wins">Turnier!$I$25</definedName>
-    <definedName name="G2_M9_R2_Games">Turnier!$H$34</definedName>
-    <definedName name="G2_M9_R2_Wins">Turnier!$I$34</definedName>
-    <definedName name="G2_M9_R3_Games">Turnier!$H$45</definedName>
-    <definedName name="G2_M9_R3_Wins">Turnier!$I$45</definedName>
-    <definedName name="G2_M9_R4_Games">Turnier!$M$54</definedName>
-    <definedName name="G2_M9_R4_Wins">Turnier!$N$54</definedName>
+    <definedName name="G2_M9_R1_Games">Turnier!$H$15</definedName>
+    <definedName name="G2_M9_R1_Wins">Turnier!$I$15</definedName>
+    <definedName name="G2_M9_R2_Games">Turnier!$H$30</definedName>
+    <definedName name="G2_M9_R2_Wins">Turnier!$I$30</definedName>
+    <definedName name="G2_M9_R3_Games">Turnier!$H$49</definedName>
+    <definedName name="G2_M9_R3_Wins">Turnier!$I$49</definedName>
+    <definedName name="G2_M9_R4_Games">Turnier!$M$60</definedName>
+    <definedName name="G2_M9_R4_Wins">Turnier!$N$60</definedName>
     <definedName name="G2_M9_R5_Games">Turnier!$H$75</definedName>
     <definedName name="G2_M9_R5_Wins">Turnier!$I$75</definedName>
     <definedName name="G2_W0">Spieler!$H$15</definedName>
@@ -408,12 +408,12 @@
     <definedName name="G2_W0_R1_Wins">Turnier!$I$24</definedName>
     <definedName name="G2_W0_R2_Games">Turnier!$M$39</definedName>
     <definedName name="G2_W0_R2_Wins">Turnier!$N$39</definedName>
-    <definedName name="G2_W0_R3_Games">Turnier!$M$40</definedName>
-    <definedName name="G2_W0_R3_Wins">Turnier!$N$40</definedName>
+    <definedName name="G2_W0_R3_Games">Turnier!$H$40</definedName>
+    <definedName name="G2_W0_R3_Wins">Turnier!$I$40</definedName>
     <definedName name="G2_W0_R4_Games">Turnier!$H$60</definedName>
     <definedName name="G2_W0_R4_Wins">Turnier!$I$60</definedName>
-    <definedName name="G2_W0_R5_Games">Turnier!$M$70</definedName>
-    <definedName name="G2_W0_R5_Wins">Turnier!$N$70</definedName>
+    <definedName name="G2_W0_R5_Games">Turnier!$M$69</definedName>
+    <definedName name="G2_W0_R5_Wins">Turnier!$N$69</definedName>
     <definedName name="G2_W1">Spieler!$H$16</definedName>
     <definedName name="G2_W1_R0_Games">Turnier!$M$14</definedName>
     <definedName name="G2_W1_R0_Wins">Turnier!$N$14</definedName>
@@ -421,12 +421,12 @@
     <definedName name="G2_W1_R1_Wins">Turnier!$I$25</definedName>
     <definedName name="G2_W1_R2_Games">Turnier!$H$35</definedName>
     <definedName name="G2_W1_R2_Wins">Turnier!$I$35</definedName>
-    <definedName name="G2_W1_R3_Games">Turnier!$M$49</definedName>
-    <definedName name="G2_W1_R3_Wins">Turnier!$N$49</definedName>
-    <definedName name="G2_W1_R4_Games">Turnier!$H$59</definedName>
-    <definedName name="G2_W1_R4_Wins">Turnier!$I$59</definedName>
-    <definedName name="G2_W1_R5_Games">Turnier!$M$75</definedName>
-    <definedName name="G2_W1_R5_Wins">Turnier!$N$75</definedName>
+    <definedName name="G2_W1_R3_Games">Turnier!$H$49</definedName>
+    <definedName name="G2_W1_R3_Wins">Turnier!$I$49</definedName>
+    <definedName name="G2_W1_R4_Games">Turnier!$H$64</definedName>
+    <definedName name="G2_W1_R4_Wins">Turnier!$I$64</definedName>
+    <definedName name="G2_W1_R5_Games">Turnier!$M$70</definedName>
+    <definedName name="G2_W1_R5_Wins">Turnier!$N$70</definedName>
     <definedName name="G2_W2">Spieler!$H$17</definedName>
     <definedName name="G2_W2_R0_Games">Turnier!$H$10</definedName>
     <definedName name="G2_W2_R0_Wins">Turnier!$I$10</definedName>
@@ -436,49 +436,49 @@
     <definedName name="G2_W2_R2_Wins">Turnier!$I$39</definedName>
     <definedName name="G2_W2_R3_Games">Turnier!$H$45</definedName>
     <definedName name="G2_W2_R3_Wins">Turnier!$I$45</definedName>
-    <definedName name="G2_W2_R4_Games">Turnier!$M$55</definedName>
-    <definedName name="G2_W2_R4_Wins">Turnier!$N$55</definedName>
-    <definedName name="G2_W2_R5_Games">Turnier!$M$69</definedName>
-    <definedName name="G2_W2_R5_Wins">Turnier!$N$69</definedName>
+    <definedName name="G2_W2_R4_Games">Turnier!$H$54</definedName>
+    <definedName name="G2_W2_R4_Wins">Turnier!$I$54</definedName>
+    <definedName name="G2_W2_R5_Games">Turnier!$H$75</definedName>
+    <definedName name="G2_W2_R5_Wins">Turnier!$I$75</definedName>
     <definedName name="G2_W3">Spieler!$H$18</definedName>
     <definedName name="G2_W3_R0_Games">Turnier!$M$10</definedName>
     <definedName name="G2_W3_R0_Wins">Turnier!$N$10</definedName>
-    <definedName name="G2_W3_R1_Games">Turnier!$H$20</definedName>
-    <definedName name="G2_W3_R1_Wins">Turnier!$I$20</definedName>
-    <definedName name="G2_W3_R2_Games">Turnier!$M$34</definedName>
-    <definedName name="G2_W3_R2_Wins">Turnier!$N$34</definedName>
-    <definedName name="G2_W3_R3_Games">Turnier!$H$40</definedName>
-    <definedName name="G2_W3_R3_Wins">Turnier!$I$40</definedName>
-    <definedName name="G2_W3_R4_Games">Turnier!$M$54</definedName>
-    <definedName name="G2_W3_R4_Wins">Turnier!$N$54</definedName>
-    <definedName name="G2_W3_R5_Games">Turnier!$M$74</definedName>
-    <definedName name="G2_W3_R5_Wins">Turnier!$N$74</definedName>
+    <definedName name="G2_W3_R1_Games">Turnier!$M$24</definedName>
+    <definedName name="G2_W3_R1_Wins">Turnier!$N$24</definedName>
+    <definedName name="G2_W3_R2_Games">Turnier!$M$35</definedName>
+    <definedName name="G2_W3_R2_Wins">Turnier!$N$35</definedName>
+    <definedName name="G2_W3_R3_Games">Turnier!$H$44</definedName>
+    <definedName name="G2_W3_R3_Wins">Turnier!$I$44</definedName>
+    <definedName name="G2_W3_R4_Games">Turnier!$H$59</definedName>
+    <definedName name="G2_W3_R4_Wins">Turnier!$I$59</definedName>
+    <definedName name="G2_W3_R5_Games">Turnier!$M$65</definedName>
+    <definedName name="G2_W3_R5_Wins">Turnier!$N$65</definedName>
     <definedName name="G2_W4">Spieler!$H$19</definedName>
     <definedName name="G2_W4_R0_Games">Turnier!$H$9</definedName>
     <definedName name="G2_W4_R0_Wins">Turnier!$I$9</definedName>
-    <definedName name="G2_W4_R1_Games">Turnier!$M$24</definedName>
-    <definedName name="G2_W4_R1_Wins">Turnier!$N$24</definedName>
-    <definedName name="G2_W4_R2_Games">Turnier!$M$30</definedName>
-    <definedName name="G2_W4_R2_Wins">Turnier!$N$30</definedName>
-    <definedName name="G2_W4_R3_Games">Turnier!$H$49</definedName>
-    <definedName name="G2_W4_R3_Wins">Turnier!$I$49</definedName>
-    <definedName name="G2_W4_R4_Games">Turnier!$H$54</definedName>
-    <definedName name="G2_W4_R4_Wins">Turnier!$I$54</definedName>
-    <definedName name="G2_W4_R5_Games">Turnier!$H$69</definedName>
-    <definedName name="G2_W4_R5_Wins">Turnier!$I$69</definedName>
+    <definedName name="G2_W4_R1_Games">Turnier!$H$20</definedName>
+    <definedName name="G2_W4_R1_Wins">Turnier!$I$20</definedName>
+    <definedName name="G2_W4_R2_Games">Turnier!$H$34</definedName>
+    <definedName name="G2_W4_R2_Wins">Turnier!$I$34</definedName>
+    <definedName name="G2_W4_R3_Games">Turnier!$H$50</definedName>
+    <definedName name="G2_W4_R3_Wins">Turnier!$I$50</definedName>
+    <definedName name="G2_W4_R4_Games">Turnier!$H$55</definedName>
+    <definedName name="G2_W4_R4_Wins">Turnier!$I$55</definedName>
+    <definedName name="G2_W4_R5_Games">Turnier!$H$70</definedName>
+    <definedName name="G2_W4_R5_Wins">Turnier!$I$70</definedName>
     <definedName name="G2_W5">Spieler!$H$20</definedName>
     <definedName name="G2_W5_R0_Games">Turnier!$M$9</definedName>
     <definedName name="G2_W5_R0_Wins">Turnier!$N$9</definedName>
-    <definedName name="G2_W5_R1_Games">Turnier!$H$19</definedName>
-    <definedName name="G2_W5_R1_Wins">Turnier!$I$19</definedName>
-    <definedName name="G2_W5_R2_Games">Turnier!$M$29</definedName>
-    <definedName name="G2_W5_R2_Wins">Turnier!$N$29</definedName>
-    <definedName name="G2_W5_R3_Games">Turnier!$M$44</definedName>
-    <definedName name="G2_W5_R3_Wins">Turnier!$N$44</definedName>
-    <definedName name="G2_W5_R4_Games">Turnier!$H$64</definedName>
-    <definedName name="G2_W5_R4_Wins">Turnier!$I$64</definedName>
-    <definedName name="G2_W5_R5_Games">Turnier!$H$75</definedName>
-    <definedName name="G2_W5_R5_Wins">Turnier!$I$75</definedName>
+    <definedName name="G2_W5_R1_Games">Turnier!$H$15</definedName>
+    <definedName name="G2_W5_R1_Wins">Turnier!$I$15</definedName>
+    <definedName name="G2_W5_R2_Games">Turnier!$M$30</definedName>
+    <definedName name="G2_W5_R2_Wins">Turnier!$N$30</definedName>
+    <definedName name="G2_W5_R3_Games">Turnier!$M$40</definedName>
+    <definedName name="G2_W5_R3_Wins">Turnier!$N$40</definedName>
+    <definedName name="G2_W5_R4_Games">Turnier!$M$54</definedName>
+    <definedName name="G2_W5_R4_Wins">Turnier!$N$54</definedName>
+    <definedName name="G2_W5_R5_Games">Turnier!$H$65</definedName>
+    <definedName name="G2_W5_R5_Wins">Turnier!$I$65</definedName>
     <definedName name="G2_W6">Spieler!$H$21</definedName>
     <definedName name="G2_W6_R0_Games">Turnier!$H$4</definedName>
     <definedName name="G2_W6_R0_Wins">Turnier!$I$4</definedName>
@@ -490,8 +490,8 @@
     <definedName name="G2_W6_R3_Wins">Turnier!$N$50</definedName>
     <definedName name="G2_W6_R4_Games">Turnier!$M$59</definedName>
     <definedName name="G2_W6_R4_Wins">Turnier!$N$59</definedName>
-    <definedName name="G2_W6_R5_Games">Turnier!$H$65</definedName>
-    <definedName name="G2_W6_R5_Wins">Turnier!$I$65</definedName>
+    <definedName name="G2_W6_R5_Games">Turnier!$H$74</definedName>
+    <definedName name="G2_W6_R5_Wins">Turnier!$I$74</definedName>
     <definedName name="G2_W7">Spieler!$H$22</definedName>
     <definedName name="G2_W7_R0_Games">Turnier!$M$4</definedName>
     <definedName name="G2_W7_R0_Wins">Turnier!$N$4</definedName>
@@ -501,36 +501,36 @@
     <definedName name="G2_W7_R2_Wins">Turnier!$I$29</definedName>
     <definedName name="G2_W7_R3_Games">Turnier!$M$45</definedName>
     <definedName name="G2_W7_R3_Wins">Turnier!$N$45</definedName>
-    <definedName name="G2_W7_R4_Games">Turnier!$M$60</definedName>
-    <definedName name="G2_W7_R4_Wins">Turnier!$N$60</definedName>
-    <definedName name="G2_W7_R5_Games">Turnier!$H$74</definedName>
-    <definedName name="G2_W7_R5_Wins">Turnier!$I$74</definedName>
+    <definedName name="G2_W7_R4_Games">Turnier!$M$55</definedName>
+    <definedName name="G2_W7_R4_Wins">Turnier!$N$55</definedName>
+    <definedName name="G2_W7_R5_Games">Turnier!$H$69</definedName>
+    <definedName name="G2_W7_R5_Wins">Turnier!$I$69</definedName>
     <definedName name="G2_W8">Spieler!$H$23</definedName>
     <definedName name="G2_W8_R0_Games">Turnier!$H$5</definedName>
     <definedName name="G2_W8_R0_Wins">Turnier!$I$5</definedName>
     <definedName name="G2_W8_R1_Games">Turnier!$M$20</definedName>
     <definedName name="G2_W8_R1_Wins">Turnier!$N$20</definedName>
-    <definedName name="G2_W8_R2_Games">Turnier!$M$35</definedName>
-    <definedName name="G2_W8_R2_Wins">Turnier!$N$35</definedName>
-    <definedName name="G2_W8_R3_Games">Turnier!$H$50</definedName>
-    <definedName name="G2_W8_R3_Wins">Turnier!$I$50</definedName>
-    <definedName name="G2_W8_R4_Games">Turnier!$M$64</definedName>
-    <definedName name="G2_W8_R4_Wins">Turnier!$N$64</definedName>
-    <definedName name="G2_W8_R5_Games">Turnier!$H$70</definedName>
-    <definedName name="G2_W8_R5_Wins">Turnier!$I$70</definedName>
+    <definedName name="G2_W8_R2_Games">Turnier!$M$29</definedName>
+    <definedName name="G2_W8_R2_Wins">Turnier!$N$29</definedName>
+    <definedName name="G2_W8_R3_Games">Turnier!$M$49</definedName>
+    <definedName name="G2_W8_R3_Wins">Turnier!$N$49</definedName>
+    <definedName name="G2_W8_R4_Games">Turnier!$M$60</definedName>
+    <definedName name="G2_W8_R4_Wins">Turnier!$N$60</definedName>
+    <definedName name="G2_W8_R5_Games">Turnier!$M$74</definedName>
+    <definedName name="G2_W8_R5_Wins">Turnier!$N$74</definedName>
     <definedName name="G2_W9">Spieler!$H$24</definedName>
     <definedName name="G2_W9_R0_Games">Turnier!$M$5</definedName>
     <definedName name="G2_W9_R0_Wins">Turnier!$N$5</definedName>
-    <definedName name="G2_W9_R1_Games">Turnier!$H$15</definedName>
-    <definedName name="G2_W9_R1_Wins">Turnier!$I$15</definedName>
-    <definedName name="G2_W9_R2_Games">Turnier!$H$34</definedName>
-    <definedName name="G2_W9_R2_Wins">Turnier!$I$34</definedName>
-    <definedName name="G2_W9_R3_Games">Turnier!$H$44</definedName>
-    <definedName name="G2_W9_R3_Wins">Turnier!$I$44</definedName>
-    <definedName name="G2_W9_R4_Games">Turnier!$H$55</definedName>
-    <definedName name="G2_W9_R4_Wins">Turnier!$I$55</definedName>
-    <definedName name="G2_W9_R5_Games">Turnier!$M$65</definedName>
-    <definedName name="G2_W9_R5_Wins">Turnier!$N$65</definedName>
+    <definedName name="G2_W9_R1_Games">Turnier!$H$19</definedName>
+    <definedName name="G2_W9_R1_Wins">Turnier!$I$19</definedName>
+    <definedName name="G2_W9_R2_Games">Turnier!$M$34</definedName>
+    <definedName name="G2_W9_R2_Wins">Turnier!$N$34</definedName>
+    <definedName name="G2_W9_R3_Games">Turnier!$M$44</definedName>
+    <definedName name="G2_W9_R3_Wins">Turnier!$N$44</definedName>
+    <definedName name="G2_W9_R4_Games">Turnier!$M$64</definedName>
+    <definedName name="G2_W9_R4_Wins">Turnier!$N$64</definedName>
+    <definedName name="G2_W9_R5_Games">Turnier!$M$75</definedName>
+    <definedName name="G2_W9_R5_Wins">Turnier!$N$75</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1565,7 +1565,7 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <f>G1_M7</f>
+        <f>G1_M4</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -1641,7 +1641,7 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <f>G2_M7</f>
+        <f>G2_M4</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -1717,7 +1717,7 @@
         <v>26</v>
       </c>
       <c r="F7">
-        <f>G1_M4</f>
+        <f>G1_M7</f>
         <v>0</v>
       </c>
       <c r="G7">
@@ -1755,7 +1755,7 @@
         <v>27</v>
       </c>
       <c r="F8">
-        <f>G1_M6</f>
+        <f>G1_M3</f>
         <v>0</v>
       </c>
       <c r="G8">
@@ -1793,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="F9">
-        <f>G2_M4</f>
+        <f>G2_M7</f>
         <v>0</v>
       </c>
       <c r="G9">
@@ -1831,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="F10">
-        <f>G2_M6</f>
+        <f>G2_M3</f>
         <v>0</v>
       </c>
       <c r="G10">
@@ -1869,7 +1869,7 @@
         <v>28</v>
       </c>
       <c r="F12">
-        <f>G1_M3</f>
+        <f>G1_M6</f>
         <v>0</v>
       </c>
       <c r="G12">
@@ -1907,11 +1907,11 @@
         <v>30</v>
       </c>
       <c r="F13">
-        <f>G1_M4</f>
+        <f>G1_M9</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G1_W9</f>
+        <f>G1_W5</f>
         <v>0</v>
       </c>
       <c r="I13">
@@ -1945,7 +1945,7 @@
         <v>28</v>
       </c>
       <c r="F14">
-        <f>G2_M3</f>
+        <f>G2_M6</f>
         <v>0</v>
       </c>
       <c r="G14">
@@ -1983,11 +1983,11 @@
         <v>30</v>
       </c>
       <c r="F15">
-        <f>G2_M4</f>
+        <f>G2_M9</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>G2_W9</f>
+        <f>G2_W5</f>
         <v>0</v>
       </c>
       <c r="I15">
@@ -2021,11 +2021,11 @@
         <v>31</v>
       </c>
       <c r="F17">
-        <f>G1_M8</f>
+        <f>G1_M7</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>G1_W5</f>
+        <f>G1_W9</f>
         <v>0</v>
       </c>
       <c r="I17">
@@ -2036,7 +2036,7 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <f>G1_M3</f>
+        <f>G1_M8</f>
         <v>0</v>
       </c>
       <c r="L17">
@@ -2059,11 +2059,11 @@
         <v>32</v>
       </c>
       <c r="F18">
-        <f>G1_M7</f>
+        <f>G1_M3</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>G1_W3</f>
+        <f>G1_W4</f>
         <v>0</v>
       </c>
       <c r="I18">
@@ -2074,7 +2074,7 @@
         <v>24</v>
       </c>
       <c r="K18">
-        <f>G1_M2</f>
+        <f>G1_M4</f>
         <v>0</v>
       </c>
       <c r="L18">
@@ -2097,11 +2097,11 @@
         <v>31</v>
       </c>
       <c r="F19">
-        <f>G2_M8</f>
+        <f>G2_M7</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>G2_W5</f>
+        <f>G2_W9</f>
         <v>0</v>
       </c>
       <c r="I19">
@@ -2112,7 +2112,7 @@
         <v>24</v>
       </c>
       <c r="K19">
-        <f>G2_M3</f>
+        <f>G2_M8</f>
         <v>0</v>
       </c>
       <c r="L19">
@@ -2135,11 +2135,11 @@
         <v>32</v>
       </c>
       <c r="F20">
-        <f>G2_M7</f>
+        <f>G2_M3</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>G2_W3</f>
+        <f>G2_W4</f>
         <v>0</v>
       </c>
       <c r="I20">
@@ -2150,7 +2150,7 @@
         <v>24</v>
       </c>
       <c r="K20">
-        <f>G2_M2</f>
+        <f>G2_M4</f>
         <v>0</v>
       </c>
       <c r="L20">
@@ -2173,7 +2173,7 @@
         <v>33</v>
       </c>
       <c r="F22">
-        <f>G1_M5</f>
+        <f>G1_M1</f>
         <v>0</v>
       </c>
       <c r="G22">
@@ -2188,11 +2188,11 @@
         <v>24</v>
       </c>
       <c r="K22">
-        <f>G1_M1</f>
+        <f>G1_M2</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>G1_W4</f>
+        <f>G1_W3</f>
         <v>0</v>
       </c>
       <c r="N22">
@@ -2211,7 +2211,7 @@
         <v>34</v>
       </c>
       <c r="F23">
-        <f>G1_M9</f>
+        <f>G1_M5</f>
         <v>0</v>
       </c>
       <c r="G23">
@@ -2249,7 +2249,7 @@
         <v>33</v>
       </c>
       <c r="F24">
-        <f>G2_M5</f>
+        <f>G2_M1</f>
         <v>0</v>
       </c>
       <c r="G24">
@@ -2264,11 +2264,11 @@
         <v>24</v>
       </c>
       <c r="K24">
-        <f>G2_M1</f>
+        <f>G2_M2</f>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>G2_W4</f>
+        <f>G2_W3</f>
         <v>0</v>
       </c>
       <c r="N24">
@@ -2287,7 +2287,7 @@
         <v>34</v>
       </c>
       <c r="F25">
-        <f>G2_M9</f>
+        <f>G2_M5</f>
         <v>0</v>
       </c>
       <c r="G25">
@@ -2325,7 +2325,7 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <f>G1_M7</f>
+        <f>G1_M4</f>
         <v>0</v>
       </c>
       <c r="G27">
@@ -2340,11 +2340,11 @@
         <v>24</v>
       </c>
       <c r="K27">
-        <f>G1_M6</f>
+        <f>G1_M7</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>G1_W5</f>
+        <f>G1_W8</f>
         <v>0</v>
       </c>
       <c r="N27">
@@ -2363,7 +2363,7 @@
         <v>37</v>
       </c>
       <c r="F28">
-        <f>G1_M4</f>
+        <f>G1_M9</f>
         <v>0</v>
       </c>
       <c r="G28">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <f>G1_W4</f>
+        <f>G1_W5</f>
         <v>0</v>
       </c>
       <c r="N28">
@@ -2401,7 +2401,7 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <f>G2_M7</f>
+        <f>G2_M4</f>
         <v>0</v>
       </c>
       <c r="G29">
@@ -2416,11 +2416,11 @@
         <v>24</v>
       </c>
       <c r="K29">
-        <f>G2_M6</f>
+        <f>G2_M7</f>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>G2_W5</f>
+        <f>G2_W8</f>
         <v>0</v>
       </c>
       <c r="N29">
@@ -2439,7 +2439,7 @@
         <v>37</v>
       </c>
       <c r="F30">
-        <f>G2_M4</f>
+        <f>G2_M9</f>
         <v>0</v>
       </c>
       <c r="G30">
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <f>G2_W4</f>
+        <f>G2_W5</f>
         <v>0</v>
       </c>
       <c r="N30">
@@ -2477,11 +2477,11 @@
         <v>38</v>
       </c>
       <c r="F32">
-        <f>G1_M9</f>
+        <f>G1_M6</f>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>G1_W9</f>
+        <f>G1_W4</f>
         <v>0</v>
       </c>
       <c r="I32">
@@ -2492,11 +2492,11 @@
         <v>24</v>
       </c>
       <c r="K32">
-        <f>G1_M8</f>
+        <f>G1_M1</f>
         <v>0</v>
       </c>
       <c r="L32">
-        <f>G1_W3</f>
+        <f>G1_W9</f>
         <v>0</v>
       </c>
       <c r="N32">
@@ -2515,7 +2515,7 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <f>G1_M3</f>
+        <f>G1_M2</f>
         <v>0</v>
       </c>
       <c r="G33">
@@ -2530,11 +2530,11 @@
         <v>24</v>
       </c>
       <c r="K33">
-        <f>G1_M1</f>
+        <f>G1_M3</f>
         <v>0</v>
       </c>
       <c r="L33">
-        <f>G1_W8</f>
+        <f>G1_W3</f>
         <v>0</v>
       </c>
       <c r="N33">
@@ -2553,11 +2553,11 @@
         <v>38</v>
       </c>
       <c r="F34">
-        <f>G2_M9</f>
+        <f>G2_M6</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>G2_W9</f>
+        <f>G2_W4</f>
         <v>0</v>
       </c>
       <c r="I34">
@@ -2568,11 +2568,11 @@
         <v>24</v>
       </c>
       <c r="K34">
-        <f>G2_M8</f>
+        <f>G2_M1</f>
         <v>0</v>
       </c>
       <c r="L34">
-        <f>G2_W3</f>
+        <f>G2_W9</f>
         <v>0</v>
       </c>
       <c r="N34">
@@ -2591,7 +2591,7 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <f>G2_M3</f>
+        <f>G2_M2</f>
         <v>0</v>
       </c>
       <c r="G35">
@@ -2606,11 +2606,11 @@
         <v>24</v>
       </c>
       <c r="K35">
-        <f>G2_M1</f>
+        <f>G2_M3</f>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>G2_W8</f>
+        <f>G2_W3</f>
         <v>0</v>
       </c>
       <c r="N35">
@@ -2629,7 +2629,7 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <f>G1_M2</f>
+        <f>G1_M8</f>
         <v>0</v>
       </c>
       <c r="G37">
@@ -2667,11 +2667,11 @@
         <v>42</v>
       </c>
       <c r="F38">
-        <f>G1_M5</f>
+        <f>G1_M3</f>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>G1_W3</f>
+        <f>G1_W0</f>
         <v>0</v>
       </c>
       <c r="I38">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <f>G1_W0</f>
+        <f>G1_W5</f>
         <v>0</v>
       </c>
       <c r="N38">
@@ -2705,7 +2705,7 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <f>G2_M2</f>
+        <f>G2_M8</f>
         <v>0</v>
       </c>
       <c r="G39">
@@ -2743,11 +2743,11 @@
         <v>42</v>
       </c>
       <c r="F40">
-        <f>G2_M5</f>
+        <f>G2_M3</f>
         <v>0</v>
       </c>
       <c r="G40">
-        <f>G2_W3</f>
+        <f>G2_W0</f>
         <v>0</v>
       </c>
       <c r="I40">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <f>G2_W0</f>
+        <f>G2_W5</f>
         <v>0</v>
       </c>
       <c r="N40">
@@ -2781,11 +2781,11 @@
         <v>43</v>
       </c>
       <c r="F42">
-        <f>G1_M6</f>
+        <f>G1_M4</f>
         <v>0</v>
       </c>
       <c r="G42">
-        <f>G1_W9</f>
+        <f>G1_W3</f>
         <v>0</v>
       </c>
       <c r="I42">
@@ -2796,11 +2796,11 @@
         <v>24</v>
       </c>
       <c r="K42">
-        <f>G1_M3</f>
+        <f>G1_M6</f>
         <v>0</v>
       </c>
       <c r="L42">
-        <f>G1_W5</f>
+        <f>G1_W9</f>
         <v>0</v>
       </c>
       <c r="N42">
@@ -2819,7 +2819,7 @@
         <v>44</v>
       </c>
       <c r="F43">
-        <f>G1_M9</f>
+        <f>G1_M5</f>
         <v>0</v>
       </c>
       <c r="G43">
@@ -2857,11 +2857,11 @@
         <v>43</v>
       </c>
       <c r="F44">
-        <f>G2_M6</f>
+        <f>G2_M4</f>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>G2_W9</f>
+        <f>G2_W3</f>
         <v>0</v>
       </c>
       <c r="I44">
@@ -2872,11 +2872,11 @@
         <v>24</v>
       </c>
       <c r="K44">
-        <f>G2_M3</f>
+        <f>G2_M6</f>
         <v>0</v>
       </c>
       <c r="L44">
-        <f>G2_W5</f>
+        <f>G2_W9</f>
         <v>0</v>
       </c>
       <c r="N44">
@@ -2895,7 +2895,7 @@
         <v>44</v>
       </c>
       <c r="F45">
-        <f>G2_M9</f>
+        <f>G2_M5</f>
         <v>0</v>
       </c>
       <c r="G45">
@@ -2933,11 +2933,11 @@
         <v>45</v>
       </c>
       <c r="F47">
-        <f>G1_M8</f>
+        <f>G1_M9</f>
         <v>0</v>
       </c>
       <c r="G47">
-        <f>G1_W4</f>
+        <f>G1_W1</f>
         <v>0</v>
       </c>
       <c r="I47">
@@ -2948,11 +2948,11 @@
         <v>24</v>
       </c>
       <c r="K47">
-        <f>G1_M1</f>
+        <f>G1_M8</f>
         <v>0</v>
       </c>
       <c r="L47">
-        <f>G1_W1</f>
+        <f>G1_W8</f>
         <v>0</v>
       </c>
       <c r="N47">
@@ -2971,11 +2971,11 @@
         <v>46</v>
       </c>
       <c r="F48">
-        <f>G1_M4</f>
+        <f>G1_M1</f>
         <v>0</v>
       </c>
       <c r="G48">
-        <f>G1_W8</f>
+        <f>G1_W4</f>
         <v>0</v>
       </c>
       <c r="I48">
@@ -3009,11 +3009,11 @@
         <v>45</v>
       </c>
       <c r="F49">
-        <f>G2_M8</f>
+        <f>G2_M9</f>
         <v>0</v>
       </c>
       <c r="G49">
-        <f>G2_W4</f>
+        <f>G2_W1</f>
         <v>0</v>
       </c>
       <c r="I49">
@@ -3024,11 +3024,11 @@
         <v>24</v>
       </c>
       <c r="K49">
-        <f>G2_M1</f>
+        <f>G2_M8</f>
         <v>0</v>
       </c>
       <c r="L49">
-        <f>G2_W1</f>
+        <f>G2_W8</f>
         <v>0</v>
       </c>
       <c r="N49">
@@ -3047,11 +3047,11 @@
         <v>46</v>
       </c>
       <c r="F50">
-        <f>G2_M4</f>
+        <f>G2_M1</f>
         <v>0</v>
       </c>
       <c r="G50">
-        <f>G2_W8</f>
+        <f>G2_W4</f>
         <v>0</v>
       </c>
       <c r="I50">
@@ -3085,11 +3085,11 @@
         <v>48</v>
       </c>
       <c r="F52">
-        <f>G1_M3</f>
+        <f>G1_M2</f>
         <v>0</v>
       </c>
       <c r="G52">
-        <f>G1_W4</f>
+        <f>G1_W2</f>
         <v>0</v>
       </c>
       <c r="I52">
@@ -3100,11 +3100,11 @@
         <v>24</v>
       </c>
       <c r="K52">
-        <f>G1_M9</f>
+        <f>G1_M8</f>
         <v>0</v>
       </c>
       <c r="L52">
-        <f>G1_W3</f>
+        <f>G1_W5</f>
         <v>0</v>
       </c>
       <c r="N52">
@@ -3123,11 +3123,11 @@
         <v>49</v>
       </c>
       <c r="F53">
-        <f>G1_M7</f>
+        <f>G1_M0</f>
         <v>0</v>
       </c>
       <c r="G53">
-        <f>G1_W9</f>
+        <f>G1_W4</f>
         <v>0</v>
       </c>
       <c r="I53">
@@ -3138,11 +3138,11 @@
         <v>24</v>
       </c>
       <c r="K53">
-        <f>G1_M1</f>
+        <f>G1_M3</f>
         <v>0</v>
       </c>
       <c r="L53">
-        <f>G1_W2</f>
+        <f>G1_W7</f>
         <v>0</v>
       </c>
       <c r="N53">
@@ -3161,11 +3161,11 @@
         <v>48</v>
       </c>
       <c r="F54">
-        <f>G2_M3</f>
+        <f>G2_M2</f>
         <v>0</v>
       </c>
       <c r="G54">
-        <f>G2_W4</f>
+        <f>G2_W2</f>
         <v>0</v>
       </c>
       <c r="I54">
@@ -3176,11 +3176,11 @@
         <v>24</v>
       </c>
       <c r="K54">
-        <f>G2_M9</f>
+        <f>G2_M8</f>
         <v>0</v>
       </c>
       <c r="L54">
-        <f>G2_W3</f>
+        <f>G2_W5</f>
         <v>0</v>
       </c>
       <c r="N54">
@@ -3199,11 +3199,11 @@
         <v>49</v>
       </c>
       <c r="F55">
-        <f>G2_M7</f>
+        <f>G2_M0</f>
         <v>0</v>
       </c>
       <c r="G55">
-        <f>G2_W9</f>
+        <f>G2_W4</f>
         <v>0</v>
       </c>
       <c r="I55">
@@ -3214,11 +3214,11 @@
         <v>24</v>
       </c>
       <c r="K55">
-        <f>G2_M1</f>
+        <f>G2_M3</f>
         <v>0</v>
       </c>
       <c r="L55">
-        <f>G2_W2</f>
+        <f>G2_W7</f>
         <v>0</v>
       </c>
       <c r="N55">
@@ -3237,11 +3237,11 @@
         <v>50</v>
       </c>
       <c r="F57">
-        <f>G1_M2</f>
+        <f>G1_M6</f>
         <v>0</v>
       </c>
       <c r="G57">
-        <f>G1_W1</f>
+        <f>G1_W3</f>
         <v>0</v>
       </c>
       <c r="I57">
@@ -3252,7 +3252,7 @@
         <v>24</v>
       </c>
       <c r="K57">
-        <f>G1_M6</f>
+        <f>G1_M5</f>
         <v>0</v>
       </c>
       <c r="L57">
@@ -3275,7 +3275,7 @@
         <v>51</v>
       </c>
       <c r="F58">
-        <f>G1_M8</f>
+        <f>G1_M7</f>
         <v>0</v>
       </c>
       <c r="G58">
@@ -3290,11 +3290,11 @@
         <v>24</v>
       </c>
       <c r="K58">
-        <f>G1_M4</f>
+        <f>G1_M9</f>
         <v>0</v>
       </c>
       <c r="L58">
-        <f>G1_W7</f>
+        <f>G1_W8</f>
         <v>0</v>
       </c>
       <c r="N58">
@@ -3313,11 +3313,11 @@
         <v>50</v>
       </c>
       <c r="F59">
-        <f>G2_M2</f>
+        <f>G2_M6</f>
         <v>0</v>
       </c>
       <c r="G59">
-        <f>G2_W1</f>
+        <f>G2_W3</f>
         <v>0</v>
       </c>
       <c r="I59">
@@ -3328,7 +3328,7 @@
         <v>24</v>
       </c>
       <c r="K59">
-        <f>G2_M6</f>
+        <f>G2_M5</f>
         <v>0</v>
       </c>
       <c r="L59">
@@ -3351,7 +3351,7 @@
         <v>51</v>
       </c>
       <c r="F60">
-        <f>G2_M8</f>
+        <f>G2_M7</f>
         <v>0</v>
       </c>
       <c r="G60">
@@ -3366,11 +3366,11 @@
         <v>24</v>
       </c>
       <c r="K60">
-        <f>G2_M4</f>
+        <f>G2_M9</f>
         <v>0</v>
       </c>
       <c r="L60">
-        <f>G2_W7</f>
+        <f>G2_W8</f>
         <v>0</v>
       </c>
       <c r="N60">
@@ -3389,11 +3389,11 @@
         <v>52</v>
       </c>
       <c r="F62">
-        <f>G1_M5</f>
+        <f>G1_M1</f>
         <v>0</v>
       </c>
       <c r="G62">
-        <f>G1_W5</f>
+        <f>G1_W1</f>
         <v>0</v>
       </c>
       <c r="I62">
@@ -3404,11 +3404,11 @@
         <v>24</v>
       </c>
       <c r="K62">
-        <f>G1_M0</f>
+        <f>G1_M4</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f>G1_W8</f>
+        <f>G1_W9</f>
         <v>0</v>
       </c>
       <c r="N62">
@@ -3427,11 +3427,11 @@
         <v>54</v>
       </c>
       <c r="F63">
-        <f>G1_M2</f>
+        <f>G1_M4</f>
         <v>0</v>
       </c>
       <c r="G63">
-        <f>G1_W6</f>
+        <f>G1_W5</f>
         <v>0</v>
       </c>
       <c r="I63">
@@ -3442,11 +3442,11 @@
         <v>24</v>
       </c>
       <c r="K63">
-        <f>G1_M3</f>
+        <f>G1_M0</f>
         <v>0</v>
       </c>
       <c r="L63">
-        <f>G1_W9</f>
+        <f>G1_W3</f>
         <v>0</v>
       </c>
       <c r="N63">
@@ -3465,11 +3465,11 @@
         <v>52</v>
       </c>
       <c r="F64">
-        <f>G2_M5</f>
+        <f>G2_M1</f>
         <v>0</v>
       </c>
       <c r="G64">
-        <f>G2_W5</f>
+        <f>G2_W1</f>
         <v>0</v>
       </c>
       <c r="I64">
@@ -3480,11 +3480,11 @@
         <v>24</v>
       </c>
       <c r="K64">
-        <f>G2_M0</f>
+        <f>G2_M4</f>
         <v>0</v>
       </c>
       <c r="L64">
-        <f>G2_W8</f>
+        <f>G2_W9</f>
         <v>0</v>
       </c>
       <c r="N64">
@@ -3503,11 +3503,11 @@
         <v>54</v>
       </c>
       <c r="F65">
-        <f>G2_M2</f>
+        <f>G2_M4</f>
         <v>0</v>
       </c>
       <c r="G65">
-        <f>G2_W6</f>
+        <f>G2_W5</f>
         <v>0</v>
       </c>
       <c r="I65">
@@ -3518,11 +3518,11 @@
         <v>24</v>
       </c>
       <c r="K65">
-        <f>G2_M3</f>
+        <f>G2_M0</f>
         <v>0</v>
       </c>
       <c r="L65">
-        <f>G2_W9</f>
+        <f>G2_W3</f>
         <v>0</v>
       </c>
       <c r="N65">
@@ -3541,11 +3541,11 @@
         <v>55</v>
       </c>
       <c r="F67">
-        <f>G1_M6</f>
+        <f>G1_M1</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f>G1_W4</f>
+        <f>G1_W7</f>
         <v>0</v>
       </c>
       <c r="I67">
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <f>G1_W2</f>
+        <f>G1_W0</f>
         <v>0</v>
       </c>
       <c r="N67">
@@ -3579,11 +3579,11 @@
         <v>56</v>
       </c>
       <c r="F68">
-        <f>G1_M7</f>
+        <f>G1_M5</f>
         <v>0</v>
       </c>
       <c r="G68">
-        <f>G1_W8</f>
+        <f>G1_W4</f>
         <v>0</v>
       </c>
       <c r="I68">
@@ -3594,11 +3594,11 @@
         <v>24</v>
       </c>
       <c r="K68">
-        <f>G1_M4</f>
+        <f>G1_M7</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f>G1_W0</f>
+        <f>G1_W1</f>
         <v>0</v>
       </c>
       <c r="N68">
@@ -3617,11 +3617,11 @@
         <v>55</v>
       </c>
       <c r="F69">
-        <f>G2_M6</f>
+        <f>G2_M1</f>
         <v>0</v>
       </c>
       <c r="G69">
-        <f>G2_W4</f>
+        <f>G2_W7</f>
         <v>0</v>
       </c>
       <c r="I69">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <f>G2_W2</f>
+        <f>G2_W0</f>
         <v>0</v>
       </c>
       <c r="N69">
@@ -3655,11 +3655,11 @@
         <v>56</v>
       </c>
       <c r="F70">
-        <f>G2_M7</f>
+        <f>G2_M5</f>
         <v>0</v>
       </c>
       <c r="G70">
-        <f>G2_W8</f>
+        <f>G2_W4</f>
         <v>0</v>
       </c>
       <c r="I70">
@@ -3670,11 +3670,11 @@
         <v>24</v>
       </c>
       <c r="K70">
-        <f>G2_M4</f>
+        <f>G2_M7</f>
         <v>0</v>
       </c>
       <c r="L70">
-        <f>G2_W0</f>
+        <f>G2_W1</f>
         <v>0</v>
       </c>
       <c r="N70">
@@ -3693,11 +3693,11 @@
         <v>57</v>
       </c>
       <c r="F72">
-        <f>G1_M1</f>
+        <f>G1_M6</f>
         <v>0</v>
       </c>
       <c r="G72">
-        <f>G1_W7</f>
+        <f>G1_W6</f>
         <v>0</v>
       </c>
       <c r="I72">
@@ -3708,11 +3708,11 @@
         <v>24</v>
       </c>
       <c r="K72">
-        <f>G1_M0</f>
+        <f>G1_M2</f>
         <v>0</v>
       </c>
       <c r="L72">
-        <f>G1_W3</f>
+        <f>G1_W8</f>
         <v>0</v>
       </c>
       <c r="N72">
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <f>G1_W5</f>
+        <f>G1_W2</f>
         <v>0</v>
       </c>
       <c r="I73">
@@ -3746,11 +3746,11 @@
         <v>24</v>
       </c>
       <c r="K73">
-        <f>G1_M5</f>
+        <f>G1_M3</f>
         <v>0</v>
       </c>
       <c r="L73">
-        <f>G1_W1</f>
+        <f>G1_W9</f>
         <v>0</v>
       </c>
       <c r="N73">
@@ -3769,11 +3769,11 @@
         <v>57</v>
       </c>
       <c r="F74">
-        <f>G2_M1</f>
+        <f>G2_M6</f>
         <v>0</v>
       </c>
       <c r="G74">
-        <f>G2_W7</f>
+        <f>G2_W6</f>
         <v>0</v>
       </c>
       <c r="I74">
@@ -3784,11 +3784,11 @@
         <v>24</v>
       </c>
       <c r="K74">
-        <f>G2_M0</f>
+        <f>G2_M2</f>
         <v>0</v>
       </c>
       <c r="L74">
-        <f>G2_W3</f>
+        <f>G2_W8</f>
         <v>0</v>
       </c>
       <c r="N74">
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <f>G2_W5</f>
+        <f>G2_W2</f>
         <v>0</v>
       </c>
       <c r="I75">
@@ -3822,11 +3822,11 @@
         <v>24</v>
       </c>
       <c r="K75">
-        <f>G2_M5</f>
+        <f>G2_M3</f>
         <v>0</v>
       </c>
       <c r="L75">
-        <f>G2_W1</f>
+        <f>G2_W9</f>
         <v>0</v>
       </c>
       <c r="N75">
